--- a/LearningManagementSystem/MasterRecord.xlsx
+++ b/LearningManagementSystem/MasterRecord.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githubrepositories\Python-exercises\LearningManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A581F38F-4650-4298-BEF0-D4C521805BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E72B8D-D559-497E-B929-62086C52B15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5964" yWindow="1872" windowWidth="23040" windowHeight="12204" xr2:uid="{A3160863-255E-440E-A273-EFA70F8E554E}"/>
+    <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" xr2:uid="{A3160863-255E-440E-A273-EFA70F8E554E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ListOfTrainees" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/LearningManagementSystem/MasterRecord.xlsx
+++ b/LearningManagementSystem/MasterRecord.xlsx
@@ -8,31 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githubrepositories\Python-exercises\LearningManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E72B8D-D559-497E-B929-62086C52B15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5B303F-BE84-4E6C-8255-A349E1B1BEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" xr2:uid="{A3160863-255E-440E-A273-EFA70F8E554E}"/>
+    <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfTrainees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Salik Tariq</t>
+  </si>
+  <si>
+    <t>Software Development using C++ and Python</t>
+  </si>
+  <si>
+    <t>BSc (Hons.) in Computing</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,15 +385,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45350ABD-FAC7-43DD-B1A8-09E1B5BEAA87}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LearningManagementSystem/MasterRecord.xlsx
+++ b/LearningManagementSystem/MasterRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githubrepositories\Python-exercises\LearningManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5B303F-BE84-4E6C-8255-A349E1B1BEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC2AA7-0AB8-4519-88BF-44570E460806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Salik Tariq</t>
-  </si>
-  <si>
-    <t>Software Development using C++ and Python</t>
-  </si>
-  <si>
-    <t>BSc (Hons.) in Computing</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I5" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,25 +383,7 @@
     <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LearningManagementSystem/MasterRecord.xlsx
+++ b/LearningManagementSystem/MasterRecord.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githubrepositories\Python-exercises\LearningManagementSystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC2AA7-0AB8-4519-88BF-44570E460806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ListOfTrainees" sheetId="1" r:id="rId1"/>
+    <sheet name="ListOfTrainees" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -369,21 +419,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="A1:I5"/>
+      <selection activeCell="G4" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col width="9.21875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="38.21875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.5546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Irina</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bachelor</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1 year</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bobby</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PhD</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PhD</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3 years</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LearningManagementSystem/MasterRecord.xlsx
+++ b/LearningManagementSystem/MasterRecord.xlsx
@@ -1,33 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githubrepositories\Python-exercises\LearningManagementSystem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29CCDD0-0AF2-4064-9C9F-04B71E717BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ListOfTrainees" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ListOfCourses" sheetId="2" r:id="rId1"/>
+    <sheet name="ListOfTrainees" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +56,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,107 +370,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FEB127-71E9-4B7D-AC33-7D7624CA72D1}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="9.21875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="38.21875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21.5546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="5.44140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Irina</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Bachelor</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1 year</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bobby</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C#</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PhD</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4 years</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Charles</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C++</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PhD</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3 years</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LearningManagementSystem/MasterRecord.xlsx
+++ b/LearningManagementSystem/MasterRecord.xlsx
@@ -8,20 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githubrepositories\Python-exercises\LearningManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29CCDD0-0AF2-4064-9C9F-04B71E717BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B5A186-12D1-40F1-99E5-FE74D9FDE33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfCourses" sheetId="2" r:id="rId1"/>
-    <sheet name="ListOfTrainees" sheetId="1" r:id="rId2"/>
+    <sheet name="ListOfTrainers" sheetId="3" r:id="rId2"/>
+    <sheet name="ListOfTrainees" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,7 +370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FEB127-71E9-4B7D-AC33-7D7624CA72D1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -382,10 +379,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C743D9A6-104A-4022-B609-25308B73C593}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/LearningManagementSystem/MasterRecord.xlsx
+++ b/LearningManagementSystem/MasterRecord.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githubrepositories\Python-exercises\LearningManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B5A186-12D1-40F1-99E5-FE74D9FDE33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE6CDD6-03A2-4B5A-AE88-AA36219E923C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfCourses" sheetId="2" r:id="rId1"/>
     <sheet name="ListOfTrainers" sheetId="3" r:id="rId2"/>
     <sheet name="ListOfTrainees" sheetId="1" r:id="rId3"/>
+    <sheet name="Enrollments" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -394,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -408,4 +409,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B3626C-1232-402B-9CEF-A6C31E8C1B76}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LearningManagementSystem/MasterRecord.xlsx
+++ b/LearningManagementSystem/MasterRecord.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githubrepositories\Python-exercises\LearningManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE6CDD6-03A2-4B5A-AE88-AA36219E923C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0427B9-D1A1-46E7-9A63-67351D0CD44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfCourses" sheetId="2" r:id="rId1"/>
     <sheet name="ListOfTrainers" sheetId="3" r:id="rId2"/>
     <sheet name="ListOfTrainees" sheetId="1" r:id="rId3"/>
     <sheet name="Enrollments" sheetId="4" r:id="rId4"/>
+    <sheet name="Managers" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -415,7 +416,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B3626C-1232-402B-9CEF-A6C31E8C1B76}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90043AE3-04F0-4B00-BCE1-D73A292B9338}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/LearningManagementSystem/MasterRecord.xlsx
+++ b/LearningManagementSystem/MasterRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githubrepositories\Python-exercises\LearningManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0427B9-D1A1-46E7-9A63-67351D0CD44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0FC7DC-BF13-46A7-9B02-28C9668B5046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1704" windowWidth="23040" windowHeight="12204" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LearningManagementSystem/MasterRecord.xlsx
+++ b/LearningManagementSystem/MasterRecord.xlsx
@@ -1,97 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githubrepositories\Python-exercises\LearningManagementSystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A906FA-7AE5-4F32-ADED-74428131F927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-26292" yWindow="2232" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-26292" yWindow="2232" windowWidth="23040" windowHeight="12204" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ListOfCourses" sheetId="1" r:id="rId1"/>
-    <sheet name="ListOfTrainers" sheetId="2" r:id="rId2"/>
-    <sheet name="Managers" sheetId="3" r:id="rId3"/>
-    <sheet name="ListOfTrainees" sheetId="4" r:id="rId4"/>
-    <sheet name="Enrollments" sheetId="5" r:id="rId5"/>
+    <sheet name="ListOfCourses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ListOfTrainers" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Managers" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ListOfTrainees" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Enrollments" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="04-03-2023" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
-  <si>
-    <t>Trainee ID</t>
-  </si>
-  <si>
-    <t>Trainee Name</t>
-  </si>
-  <si>
-    <t>Course Attending</t>
-  </si>
-  <si>
-    <t>Degree Completed</t>
-  </si>
-  <si>
-    <t>Work Experience</t>
-  </si>
-  <si>
-    <t>Trainer ID</t>
-  </si>
-  <si>
-    <t>Course ID</t>
-  </si>
-  <si>
-    <t>Course Description</t>
-  </si>
-  <si>
-    <t>Full name</t>
-  </si>
-  <si>
-    <t>Email address</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>Manager ID</t>
-  </si>
-  <si>
-    <t>Trainers</t>
-  </si>
-  <si>
-    <t>Courses</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,25 +59,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -428,60 +436,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col width="8.88671875" customWidth="1" min="1" max="1"/>
+    <col width="17.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Intermediate Python</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col width="12.21875" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="14.77734375" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trainer ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>T001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tom Ford</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>shilpa@shilpa.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123-456-7890</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -490,41 +552,89 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col width="10.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.44140625" customWidth="1" min="2" max="2"/>
+    <col width="18.77734375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="16.6640625" customWidth="1" min="4" max="4"/>
+    <col width="15.33203125" customWidth="1" min="5" max="5"/>
+    <col width="18.109375" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Manager ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Trainers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jane Doe</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tomi@tomijanet.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C001,C002</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>T001</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -533,68 +643,354 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="19.88671875" customWidth="1" min="2" max="2"/>
+    <col width="21.77734375" customWidth="1" min="3" max="3"/>
+    <col width="16.21875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="14.88671875" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trainee ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Trainee Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Attending</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Degree Completed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Work Experience</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Irina</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bachelor</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1 year</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bobby</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PhD</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PhD</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Salik</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BSc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col width="11.5546875" customWidth="1" min="1" max="1"/>
+    <col width="12.5546875" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Trainee ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>T001</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Trainee ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Trainee Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Attendance</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Trainer ID</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Trainer Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TRN001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TR001</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>John Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TRN002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TRN003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charlie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TRN004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>